--- a/NEW HR/MANLANGIT, LEONILA.xlsx
+++ b/NEW HR/MANLANGIT, LEONILA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="116">
   <si>
     <t>PERIOD</t>
   </si>
@@ -373,6 +373,18 @@
   </si>
   <si>
     <t>PARENTAL 3/23-25/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SOLO(3-0-0)</t>
+  </si>
+  <si>
+    <t>11/28-30/2023</t>
+  </si>
+  <si>
+    <t>12/19-21/2023</t>
   </si>
 </sst>
 </file>
@@ -3017,7 +3029,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K151" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K152" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3425,12 +3437,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K151"/>
+  <dimension ref="A2:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A85" activePane="bottomLeft"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A92" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K96" sqref="K96"/>
+      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3591,7 +3603,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>5.75</v>
+        <v>15.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3601,7 +3613,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>21.75</v>
+        <v>31.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5503,13 +5515,15 @@
         <v>45017</v>
       </c>
       <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
@@ -5517,15 +5531,19 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45047</v>
+      </c>
       <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
@@ -5533,15 +5551,19 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45078</v>
+      </c>
       <c r="B98" s="20"/>
-      <c r="C98" s="13"/>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
@@ -5549,15 +5571,19 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45108</v>
+      </c>
       <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
@@ -5565,15 +5591,19 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45139</v>
+      </c>
       <c r="B100" s="20"/>
-      <c r="C100" s="13"/>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G100" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
@@ -5581,15 +5611,19 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45170</v>
+      </c>
       <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G101" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
@@ -5597,15 +5631,19 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45200</v>
+      </c>
       <c r="B102" s="20"/>
-      <c r="C102" s="13"/>
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G102" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
@@ -5613,39 +5651,48 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="13"/>
+      <c r="A103" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D103" s="39"/>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G103" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
+      <c r="K103" s="20" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45261</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G104" s="13"/>
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+      <c r="A105" s="48" t="s">
+        <v>112</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -5661,7 +5708,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45292</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -5677,7 +5726,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45323</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -5693,7 +5744,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45352</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -5709,7 +5762,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>45383</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -6381,20 +6436,36 @@
       <c r="K150" s="20"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="41"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="42"/>
-      <c r="D151" s="43"/>
+      <c r="A151" s="40"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="39"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H151" s="43"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="39"/>
       <c r="I151" s="9"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="15"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="20"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="41"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="42"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="43"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6443,10 +6514,10 @@
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A24" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A12" activePane="bottomLeft"/>
       <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7025,7 +7096,9 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
@@ -7034,7 +7107,9 @@
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
+      <c r="K27" s="20" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
